--- a/medicine/Enfance/Un_poney_très_courageux/Un_poney_très_courageux.xlsx
+++ b/medicine/Enfance/Un_poney_très_courageux/Un_poney_très_courageux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_poney_tr%C3%A8s_courageux</t>
+          <t>Un_poney_très_courageux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un poney très courageux (Pony Parade) est un roman pour enfants illustré par Annie-Claude Martin, publié en Royaume-Uni aux éditions Hodder Children's Books en 1997, puis en France aux éditions Bayard Jeunesse en 2001. Il est l'œuvre d'un collectif d'auteurs anglo-saxons publiant sous le pseudonyme de Lucy Daniels (en) au Royaume-Uni[1].
+Un poney très courageux (Pony Parade) est un roman pour enfants illustré par Annie-Claude Martin, publié en Royaume-Uni aux éditions Hodder Children's Books en 1997, puis en France aux éditions Bayard Jeunesse en 2001. Il est l'œuvre d'un collectif d'auteurs anglo-saxons publiant sous le pseudonyme de Lucy Daniels (en) au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_poney_tr%C3%A8s_courageux</t>
+          <t>Un_poney_très_courageux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul, le nouveau voisin de Cathie, a choisi un poney au refuge des chevaux. Paddy, qui a été battu par son ancien propriétaire, est en piteux état. Paul fait tout pour lui rendre la joie de vivre. Malheureusement, à l'école, les enfants sont persuadés que Paddy est un poney maltraité... Comment Cathie va-t-elle leur montrer qu'ils se sont trompés?
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_poney_tr%C3%A8s_courageux</t>
+          <t>Un_poney_très_courageux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Édition petit format : Bayard Jeunesse Poche, Collection S.O.S Animaux, 2001  (ISBN 2-227-07006-4).</t>
         </is>
